--- a/data/data-catherine.xls.xlsx
+++ b/data/data-catherine.xls.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICG" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="113">
   <si>
     <t>Elapsed Time:</t>
   </si>
@@ -81,13 +81,7 @@
     <t>runnerwin.exe</t>
   </si>
   <si>
-    <t>262.459s</t>
-  </si>
-  <si>
     <t>icg</t>
-  </si>
-  <si>
-    <t>20.480s</t>
   </si>
   <si>
     <t>experiment_prng</t>
@@ -126,12 +120,6 @@
     <t>Trial 2</t>
   </si>
   <si>
-    <t>262.772s</t>
-  </si>
-  <si>
-    <t>20.869s</t>
-  </si>
-  <si>
     <t>11.297s</t>
   </si>
   <si>
@@ -148,12 +136,6 @@
   </si>
   <si>
     <t>Trial 3</t>
-  </si>
-  <si>
-    <t>271.290s</t>
-  </si>
-  <si>
-    <t>22.174s</t>
   </si>
   <si>
     <t>12.877s</t>
@@ -228,9 +210,6 @@
     <t>lcg</t>
   </si>
   <si>
-    <t>15.249s</t>
-  </si>
-  <si>
     <t>11.211s</t>
   </si>
   <si>
@@ -238,9 +217,6 @@
   </si>
   <si>
     <t>NtRequestWaitReplyPort</t>
-  </si>
-  <si>
-    <t>15.667s</t>
   </si>
   <si>
     <t>11.462s</t>
@@ -253,9 +229,6 @@
   </si>
   <si>
     <t>0.001s</t>
-  </si>
-  <si>
-    <t>15.326s</t>
   </si>
   <si>
     <t>11.291s</t>
@@ -282,16 +255,10 @@
     <t>lfg</t>
   </si>
   <si>
-    <t>245.202s</t>
-  </si>
-  <si>
     <t>11.506s</t>
   </si>
   <si>
     <t>func@0x78e8cb70</t>
-  </si>
-  <si>
-    <t>244.536s</t>
   </si>
   <si>
     <t>11.596s</t>
@@ -304,9 +271,6 @@
   </si>
   <si>
     <t>func@0x11ed8</t>
-  </si>
-  <si>
-    <t>244.005s</t>
   </si>
   <si>
     <t>11.508s</t>
@@ -327,13 +291,7 @@
     <t>randomMT</t>
   </si>
   <si>
-    <t>34.406s</t>
-  </si>
-  <si>
     <t>reloadMT</t>
-  </si>
-  <si>
-    <t>29.559s</t>
   </si>
   <si>
     <t>6.961s</t>
@@ -342,37 +300,16 @@
     <t>twister</t>
   </si>
   <si>
-    <t>6.208s</t>
-  </si>
-  <si>
     <t>0.021s</t>
-  </si>
-  <si>
-    <t>34.889s</t>
-  </si>
-  <si>
-    <t>29.704s</t>
   </si>
   <si>
     <t>7.061s</t>
   </si>
   <si>
-    <t>6.328s</t>
-  </si>
-  <si>
     <t>0.010s</t>
   </si>
   <si>
-    <t>34.025s</t>
-  </si>
-  <si>
-    <t>28.890s</t>
-  </si>
-  <si>
     <t>6.932s</t>
-  </si>
-  <si>
-    <t>6.189s</t>
   </si>
   <si>
     <t>0.022s</t>
@@ -390,22 +327,13 @@
     <t>xorshift32</t>
   </si>
   <si>
-    <t>36.556s</t>
-  </si>
-  <si>
     <t>6.617s</t>
-  </si>
-  <si>
-    <t>38.104s</t>
   </si>
   <si>
     <t>7.123s</t>
   </si>
   <si>
     <t>NtAllocateVirtualMemory</t>
-  </si>
-  <si>
-    <t>37.519s</t>
   </si>
   <si>
     <t>7.089s</t>
@@ -909,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24:P32"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -940,25 +868,25 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
       <c r="N3" s="22" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
@@ -971,7 +899,7 @@
         <v>309.58600000000001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
@@ -981,7 +909,7 @@
         <v>309.38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="5" t="s">
@@ -991,7 +919,7 @@
         <v>328.887</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="21" t="s">
@@ -1002,7 +930,7 @@
         <v>315.95100000000002</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1013,7 +941,7 @@
         <v>294.07100000000003</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8" t="s">
@@ -1023,7 +951,7 @@
         <v>294.97500000000002</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="8" t="s">
@@ -1033,7 +961,7 @@
         <v>306.41899999999998</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L5" s="10"/>
       <c r="N5" s="21" t="s">
@@ -1044,7 +972,7 @@
         <v>298.48833333333334</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1259,7 +1187,7 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="12" t="s">
@@ -1269,7 +1197,7 @@
         <v>0.127</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="12" t="s">
@@ -1279,7 +1207,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L12" s="15"/>
       <c r="N12" s="21" t="s">
@@ -1290,7 +1218,7 @@
         <v>0.20633333333333334</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1367,8 +1295,8 @@
       <c r="C15" s="11">
         <v>1018311972</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>17</v>
+      <c r="D15" s="10">
+        <v>262.459</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>15</v>
@@ -1379,8 +1307,8 @@
       <c r="G15" s="11">
         <v>1018397202</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>32</v>
+      <c r="H15" s="10">
+        <v>262.77199999999999</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>15</v>
@@ -1391,8 +1319,8 @@
       <c r="K15" s="11">
         <v>1019205471</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>40</v>
+      <c r="L15" s="10">
+        <v>271.29000000000002</v>
       </c>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
@@ -1400,7 +1328,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>16</v>
@@ -1408,11 +1336,11 @@
       <c r="C16" s="11">
         <v>4141651517</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>19</v>
+      <c r="D16" s="10">
+        <v>20.48</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>16</v>
@@ -1420,11 +1348,11 @@
       <c r="G16" s="11">
         <v>4258630686</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>33</v>
+      <c r="H16" s="10">
+        <v>20.869</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>16</v>
@@ -1432,8 +1360,8 @@
       <c r="K16" s="11">
         <v>4257971361</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>41</v>
+      <c r="L16" s="10">
+        <v>22.173999999999999</v>
       </c>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
@@ -1441,7 +1369,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>16</v>
@@ -1450,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>16</v>
@@ -1462,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>16</v>
@@ -1474,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -1482,40 +1410,40 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="E18" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
@@ -1523,40 +1451,40 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="E19" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G19" s="9">
         <v>0</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K19" s="9">
         <v>0</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
@@ -1564,47 +1492,63 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14">
         <v>16933</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="14">
         <v>27885</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="14">
         <v>32512</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16">
+      <c r="D21">
+        <f>SUM(D15:D16)</f>
+        <v>282.93900000000002</v>
+      </c>
+      <c r="H21" s="21">
+        <f>SUM(H15:H16)</f>
+        <v>283.64099999999996</v>
+      </c>
+      <c r="L21" s="21">
+        <f>SUM(L15:L16)</f>
+        <v>293.464</v>
+      </c>
+      <c r="M21">
+        <f>AVERAGE(L21,D21,H21)</f>
+        <v>286.68133333333333</v>
+      </c>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
@@ -1612,22 +1556,22 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
       <c r="G23" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
       <c r="N23" s="21" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
@@ -1640,7 +1584,7 @@
         <v>307.315</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>0</v>
@@ -1649,7 +1593,7 @@
         <v>307.64699999999999</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>0</v>
@@ -1658,7 +1602,7 @@
         <v>315.58800000000002</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N24" s="21" t="s">
         <v>0</v>
@@ -1668,7 +1612,7 @@
         <v>310.18333333333334</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1679,7 +1623,7 @@
         <v>247.40799999999999</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>1</v>
@@ -1688,7 +1632,7 @@
         <v>290.69400000000002</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>1</v>
@@ -1697,7 +1641,7 @@
         <v>239.26900000000001</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N25" s="21" t="s">
         <v>1</v>
@@ -1707,33 +1651,33 @@
         <v>259.12366666666668</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B26" s="16">
         <v>0.19900000000000001</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E26" s="16">
         <v>0.191</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H26" s="16">
         <v>0.2</v>
       </c>
       <c r="I26" s="10"/>
       <c r="N26" s="21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O26" s="21">
         <f t="shared" si="1"/>
@@ -1743,28 +1687,28 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B27" s="11">
         <v>255803273868</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E27" s="11">
         <v>310085702292</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H27" s="11">
         <v>249533085768</v>
       </c>
       <c r="I27" s="10"/>
       <c r="N27" s="21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O27" s="21">
         <f t="shared" si="1"/>
@@ -1774,28 +1718,28 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B28" s="11">
         <v>152205366024</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E28" s="11">
         <v>185397161748</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H28" s="11">
         <v>149333679876</v>
       </c>
       <c r="I28" s="10"/>
       <c r="N28" s="21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" si="1"/>
@@ -1805,28 +1749,28 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="11">
         <v>1200036</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E29" s="11">
         <v>1200036</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H29" s="11">
         <v>1800054</v>
       </c>
       <c r="I29" s="10"/>
       <c r="N29" s="21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O29" s="21">
         <f t="shared" si="1"/>
@@ -1836,28 +1780,28 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="9">
         <v>27</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E30" s="9">
         <v>28</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H30" s="9">
         <v>25</v>
       </c>
       <c r="I30" s="10"/>
       <c r="N30" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O30" s="21">
         <f t="shared" si="1"/>
@@ -1904,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>7</v>
@@ -1913,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>7</v>
@@ -1922,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N32" s="21" t="s">
         <v>7</v>
@@ -1932,76 +1876,76 @@
         <v>0</v>
       </c>
       <c r="P32" s="21" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
       <c r="G33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2012,7 +1956,7 @@
         <v>244.81458360969901</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D36" s="8">
         <v>0</v>
@@ -2021,7 +1965,7 @@
         <v>247.69703583459901</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G36" s="8">
         <v>0</v>
@@ -2030,7 +1974,7 @@
         <v>182.19836050219999</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2041,7 +1985,7 @@
         <v>29.87</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
@@ -2050,7 +1994,7 @@
         <v>28.93</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G37" s="8">
         <v>1</v>
@@ -2059,7 +2003,7 @@
         <v>82.98</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2070,7 +2014,7 @@
         <v>25.65</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D38" s="8">
         <v>2</v>
@@ -2079,7 +2023,7 @@
         <v>24.709999999999901</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G38" s="8">
         <v>2</v>
@@ -2088,7 +2032,7 @@
         <v>23.61</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2099,7 +2043,7 @@
         <v>4.1099999999999897</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D39" s="8">
         <v>3</v>
@@ -2108,7 +2052,7 @@
         <v>3.85</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
@@ -2117,7 +2061,7 @@
         <v>11.54</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2128,7 +2072,7 @@
         <v>2.14</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D40" s="8">
         <v>4</v>
@@ -2137,7 +2081,7 @@
         <v>1.7999999999999901</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
@@ -2146,7 +2090,7 @@
         <v>7.1</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2157,7 +2101,7 @@
         <v>0.47</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D41" s="8">
         <v>5</v>
@@ -2166,7 +2110,7 @@
         <v>0.5</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G41" s="8">
         <v>5</v>
@@ -2175,7 +2119,7 @@
         <v>4.17</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2186,7 +2130,7 @@
         <v>0.06</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D42" s="8">
         <v>6</v>
@@ -2195,7 +2139,7 @@
         <v>0.13999999999999899</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G42" s="8">
         <v>6</v>
@@ -2204,7 +2148,7 @@
         <v>2.52999999999999</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2215,7 +2159,7 @@
         <v>0.15</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D43" s="8">
         <v>7</v>
@@ -2224,7 +2168,7 @@
         <v>0.02</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G43" s="8">
         <v>7</v>
@@ -2233,7 +2177,7 @@
         <v>1.02</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2244,7 +2188,7 @@
         <v>0.05</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="9"/>
@@ -2256,7 +2200,7 @@
         <v>0.38</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2273,7 +2217,7 @@
         <v>0.05</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2290,46 +2234,46 @@
         <v>0.01</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
       <c r="D47" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="7"/>
       <c r="G47" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I48" s="10"/>
     </row>
@@ -3859,8 +3803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24:P32"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3877,7 +3821,7 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3887,25 +3831,25 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
       <c r="N3" s="22" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
@@ -3918,7 +3862,7 @@
         <v>29.061</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
@@ -3928,7 +3872,7 @@
         <v>30.824000000000002</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="5" t="s">
@@ -3938,7 +3882,7 @@
         <v>28.855</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="21" t="s">
@@ -3949,7 +3893,7 @@
         <v>29.580000000000002</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3960,7 +3904,7 @@
         <v>26.475000000000001</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8" t="s">
@@ -3970,7 +3914,7 @@
         <v>27.146000000000001</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="8" t="s">
@@ -3980,7 +3924,7 @@
         <v>26.641999999999999</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L5" s="10"/>
       <c r="N5" s="21" t="s">
@@ -3991,7 +3935,7 @@
         <v>26.754333333333335</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4206,7 +4150,7 @@
         <v>0.31</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="12" t="s">
@@ -4216,7 +4160,7 @@
         <v>1.34</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="12" t="s">
@@ -4226,7 +4170,7 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L12" s="15"/>
       <c r="N12" s="21" t="s">
@@ -4237,7 +4181,7 @@
         <v>0.64066666666666672</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -4306,7 +4250,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>16</v>
@@ -4314,11 +4258,11 @@
       <c r="C15" s="11">
         <v>4192645179</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>66</v>
+      <c r="D15" s="10">
+        <v>15.249000000000001</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>16</v>
@@ -4326,11 +4270,11 @@
       <c r="G15" s="11">
         <v>4211663887</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>70</v>
+      <c r="H15" s="10">
+        <v>15.667</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>16</v>
@@ -4338,8 +4282,12 @@
       <c r="K15" s="11">
         <v>4220837915</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>75</v>
+      <c r="L15" s="10">
+        <v>15.326000000000001</v>
+      </c>
+      <c r="M15">
+        <f>AVERAGE(L15,D15,H15)</f>
+        <v>15.414000000000001</v>
       </c>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
@@ -4347,7 +4295,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>16</v>
@@ -4356,10 +4304,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>16</v>
@@ -4368,10 +4316,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>16</v>
@@ -4380,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
@@ -4388,40 +4336,40 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="9">
         <v>0</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
@@ -4429,40 +4377,40 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="9">
         <v>0</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
@@ -4470,40 +4418,40 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="J19" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="K19" s="9">
         <v>0</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
@@ -4511,34 +4459,34 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14">
         <v>3604</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13">
         <v>0</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="14">
         <v>44478</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
@@ -4551,7 +4499,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
@@ -4559,22 +4507,22 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
       <c r="G23" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
       <c r="N23" s="21" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
@@ -4587,7 +4535,7 @@
         <v>22.081</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>0</v>
@@ -4596,7 +4544,7 @@
         <v>26.155000000000001</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>0</v>
@@ -4605,7 +4553,7 @@
         <v>25.972999999999999</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N24" s="21" t="s">
         <v>0</v>
@@ -4615,7 +4563,7 @@
         <v>24.736333333333334</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -4626,7 +4574,7 @@
         <v>17.152999999999999</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>1</v>
@@ -4635,7 +4583,7 @@
         <v>25.152999999999999</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>1</v>
@@ -4644,7 +4592,7 @@
         <v>25.076000000000001</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N25" s="21" t="s">
         <v>1</v>
@@ -4654,33 +4602,33 @@
         <v>22.460666666666668</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B26" s="16">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E26" s="16">
         <v>0.09</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H26" s="16">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="I26" s="10"/>
       <c r="N26" s="21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O26" s="21">
         <f t="shared" si="1"/>
@@ -4690,28 +4638,28 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B27" s="11">
         <v>53265997932</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E27" s="11">
         <v>77990339640</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H27" s="11">
         <v>78373151124</v>
       </c>
       <c r="I27" s="10"/>
       <c r="N27" s="21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O27" s="21">
         <f t="shared" si="1"/>
@@ -4721,28 +4669,28 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B28" s="11">
         <v>26630598894</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E28" s="11">
         <v>38981369406</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H28" s="11">
         <v>39158974734</v>
       </c>
       <c r="I28" s="10"/>
       <c r="N28" s="21" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" si="1"/>
@@ -4752,28 +4700,28 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="9">
         <v>0</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E29" s="11">
         <v>600018</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H29" s="11">
         <v>600018</v>
       </c>
       <c r="I29" s="10"/>
       <c r="N29" s="21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O29" s="21">
         <f t="shared" si="1"/>
@@ -4783,28 +4731,28 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="9">
         <v>9</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E30" s="9">
         <v>9</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H30" s="9">
         <v>9</v>
       </c>
       <c r="I30" s="10"/>
       <c r="N30" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O30" s="21">
         <f t="shared" si="1"/>
@@ -4851,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>7</v>
@@ -4860,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>7</v>
@@ -4869,7 +4817,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N32" s="21" t="s">
         <v>7</v>
@@ -4879,50 +4827,50 @@
         <v>0</v>
       </c>
       <c r="P32" s="21" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
       <c r="G33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I34" s="10"/>
     </row>
@@ -4934,25 +4882,25 @@
         <v>18.381371801699999</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4963,7 +4911,7 @@
         <v>1.89</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D36" s="8">
         <v>0</v>
@@ -4972,7 +4920,7 @@
         <v>21.235021435299998</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G36" s="8">
         <v>0</v>
@@ -4981,7 +4929,7 @@
         <v>21.293463297900001</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4992,7 +4940,7 @@
         <v>1.68</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
@@ -5001,7 +4949,7 @@
         <v>2.79</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G37" s="8">
         <v>1</v>
@@ -5010,7 +4958,7 @@
         <v>2.4</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5021,7 +4969,7 @@
         <v>0.109999999999999</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D38" s="8">
         <v>2</v>
@@ -5030,7 +4978,7 @@
         <v>1.93999999999999</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G38" s="8">
         <v>2</v>
@@ -5039,7 +4987,7 @@
         <v>2.12</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -5050,7 +4998,7 @@
         <v>0.01</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D39" s="8">
         <v>3</v>
@@ -5059,7 +5007,7 @@
         <v>0.13</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
@@ -5068,7 +5016,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -5079,7 +5027,7 @@
         <v>0.01</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D40" s="12">
         <v>4</v>
@@ -5088,7 +5036,7 @@
         <v>0.06</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G40" s="12">
         <v>4</v>
@@ -5097,46 +5045,46 @@
         <v>0.02</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
       <c r="D41" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7"/>
       <c r="G41" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I42" s="10"/>
     </row>
@@ -5701,8 +5649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView topLeftCell="M3" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:P32"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5716,35 +5664,35 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
       <c r="N3" s="22" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5755,7 +5703,7 @@
         <v>294.30200000000002</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
@@ -5765,7 +5713,7 @@
         <v>289.36599999999999</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="5" t="s">
@@ -5775,7 +5723,7 @@
         <v>277.69200000000001</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7"/>
       <c r="N4" s="21" t="s">
@@ -5786,7 +5734,7 @@
         <v>287.12</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5797,7 +5745,7 @@
         <v>256.78199999999998</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8" t="s">
@@ -5807,7 +5755,7 @@
         <v>256.19099999999997</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="8" t="s">
@@ -5817,7 +5765,7 @@
         <v>255.58500000000001</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L5" s="10"/>
       <c r="N5" s="21" t="s">
@@ -5828,7 +5776,7 @@
         <v>256.18599999999998</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -6037,7 +5985,7 @@
         <v>17.538</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="12" t="s">
@@ -6047,7 +5995,7 @@
         <v>12.868</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="12" t="s">
@@ -6057,7 +6005,7 @@
         <v>2.242</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L12" s="15"/>
       <c r="N12" s="21" t="s">
@@ -6068,7 +6016,7 @@
         <v>10.882666666666665</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -6132,7 +6080,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>16</v>
@@ -6140,11 +6088,11 @@
       <c r="C15" s="11">
         <v>4194922123</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>84</v>
+      <c r="D15" s="10">
+        <v>245.202</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>16</v>
@@ -6152,11 +6100,11 @@
       <c r="G15" s="11">
         <v>4183522153</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>87</v>
+      <c r="H15" s="10">
+        <v>244.536</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>16</v>
@@ -6164,14 +6112,18 @@
       <c r="K15" s="11">
         <v>4187229019</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>92</v>
+      <c r="L15" s="10">
+        <v>244.005</v>
+      </c>
+      <c r="M15">
+        <f>AVERAGE(D15,H15,L15)</f>
+        <v>244.58099999999999</v>
       </c>
       <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>16</v>
@@ -6180,10 +6132,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>16</v>
@@ -6192,10 +6144,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>16</v>
@@ -6204,157 +6156,157 @@
         <v>0</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="9">
         <v>0</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K17" s="9">
         <v>0</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="9">
         <v>0</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N18" s="21"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="9">
         <v>0</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G19" s="9">
         <v>0</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K19" s="9">
         <v>0</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N19" s="21"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14">
         <v>35302</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="14">
         <v>125628</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="14">
         <v>42373</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N20" s="21"/>
     </row>
@@ -6363,28 +6315,28 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N22" s="21"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
       <c r="G23" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
       <c r="N23" s="22" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -6395,7 +6347,7 @@
         <v>255.565</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>0</v>
@@ -6404,7 +6356,7 @@
         <v>260.29199999999997</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>0</v>
@@ -6413,7 +6365,7 @@
         <v>260.04899999999998</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>0</v>
@@ -6423,7 +6375,7 @@
         <v>258.63533333333334</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -6434,7 +6386,7 @@
         <v>117.749</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>1</v>
@@ -6443,7 +6395,7 @@
         <v>202.79599999999999</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>1</v>
@@ -6452,7 +6404,7 @@
         <v>223.30099999999999</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>1</v>
@@ -6462,33 +6414,33 @@
         <v>181.28200000000001</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B26" s="16">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E26" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H26" s="16">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="I26" s="10"/>
       <c r="N26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O26" s="21">
         <f t="shared" si="1"/>
@@ -6497,28 +6449,28 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B27" s="11">
         <v>352202765766</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E27" s="11">
         <v>616090082148</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H27" s="11">
         <v>666782002860</v>
       </c>
       <c r="I27" s="10"/>
       <c r="N27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O27" s="21">
         <f t="shared" si="1"/>
@@ -6527,28 +6479,28 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B28" s="11">
         <v>89088272568</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E28" s="11">
         <v>155798273808</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H28" s="11">
         <v>168680660268</v>
       </c>
       <c r="I28" s="10"/>
       <c r="N28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O28" s="21">
         <f t="shared" si="1"/>
@@ -6557,28 +6509,28 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="11">
         <v>600018</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E29" s="11">
         <v>600018</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H29" s="11">
         <v>600018</v>
       </c>
       <c r="I29" s="10"/>
       <c r="N29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O29" s="21">
         <f t="shared" si="1"/>
@@ -6587,28 +6539,28 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="9">
         <v>12</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E30" s="9">
         <v>12</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H30" s="9">
         <v>12</v>
       </c>
       <c r="I30" s="10"/>
       <c r="N30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O30" s="21">
         <f t="shared" si="1"/>
@@ -6653,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>7</v>
@@ -6662,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>7</v>
@@ -6671,7 +6623,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N32" s="12" t="s">
         <v>7</v>
@@ -6681,77 +6633,77 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
       <c r="G33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I34" s="10"/>
       <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -6762,7 +6714,7 @@
         <v>193.6652530042</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D36" s="8">
         <v>0</v>
@@ -6771,7 +6723,7 @@
         <v>191.881721453799</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G36" s="8">
         <v>0</v>
@@ -6780,7 +6732,7 @@
         <v>193.66921084090001</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -6791,7 +6743,7 @@
         <v>25.1</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
@@ -6800,7 +6752,7 @@
         <v>25.67</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G37" s="8">
         <v>1</v>
@@ -6809,7 +6761,7 @@
         <v>24.68</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -6820,7 +6772,7 @@
         <v>32.709999999999901</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D38" s="8">
         <v>2</v>
@@ -6829,7 +6781,7 @@
         <v>37.889999999999901</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G38" s="8">
         <v>2</v>
@@ -6838,7 +6790,7 @@
         <v>36.93</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -6849,7 +6801,7 @@
         <v>3.14</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D39" s="8">
         <v>3</v>
@@ -6858,7 +6810,7 @@
         <v>3.7999999999999901</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
@@ -6867,7 +6819,7 @@
         <v>4.01</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -6878,7 +6830,7 @@
         <v>0.77</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D40" s="8">
         <v>4</v>
@@ -6887,7 +6839,7 @@
         <v>0.93</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
@@ -6896,7 +6848,7 @@
         <v>0.68</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="14.25" customHeight="1">
@@ -6907,7 +6859,7 @@
         <v>0.18</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D41" s="8">
         <v>5</v>
@@ -6916,7 +6868,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G41" s="8">
         <v>5</v>
@@ -6925,7 +6877,7 @@
         <v>0.05</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -6939,7 +6891,7 @@
         <v>0.02</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G42" s="8">
         <v>6</v>
@@ -6948,7 +6900,7 @@
         <v>0.03</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -6962,7 +6914,7 @@
         <v>0.01</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
@@ -6979,7 +6931,7 @@
         <v>0.02</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="13"/>
@@ -6987,41 +6939,41 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
       <c r="D45" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
       <c r="G45" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I46" s="10"/>
     </row>
@@ -7731,8 +7683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24:P32"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7749,35 +7701,35 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
       <c r="N3" s="20" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7788,7 +7740,7 @@
         <v>85.138999999999996</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
@@ -7798,7 +7750,7 @@
         <v>85.875</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8" t="s">
@@ -7808,7 +7760,7 @@
         <v>85.147000000000006</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L4" s="10"/>
       <c r="N4" t="s">
@@ -7819,7 +7771,7 @@
         <v>85.387</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -7830,7 +7782,7 @@
         <v>77.162000000000006</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8" t="s">
@@ -7840,7 +7792,7 @@
         <v>78.012</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="8" t="s">
@@ -7850,7 +7802,7 @@
         <v>76.067999999999998</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L5" s="10"/>
       <c r="N5" t="s">
@@ -7861,7 +7813,7 @@
         <v>77.080666666666673</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -8070,7 +8022,7 @@
         <v>1.123</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="12" t="s">
@@ -8080,7 +8032,7 @@
         <v>1.383</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="12" t="s">
@@ -8090,7 +8042,7 @@
         <v>1.6719999999999999</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L12" s="15"/>
       <c r="N12" t="s">
@@ -8101,7 +8053,7 @@
         <v>1.3926666666666667</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -8164,7 +8116,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>16</v>
@@ -8172,11 +8124,11 @@
       <c r="C15" s="11">
         <v>4094171800</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>99</v>
+      <c r="D15" s="10">
+        <v>34.405999999999999</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>16</v>
@@ -8184,11 +8136,11 @@
       <c r="G15" s="11">
         <v>4126952508</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>106</v>
+      <c r="H15" s="10">
+        <v>34.889000000000003</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>16</v>
@@ -8196,13 +8148,17 @@
       <c r="K15" s="11">
         <v>4058696104</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>111</v>
+      <c r="L15" s="10">
+        <v>34.024999999999999</v>
+      </c>
+      <c r="M15">
+        <f>SUM(L15,H15,D15)</f>
+        <v>103.32</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>16</v>
@@ -8210,11 +8166,11 @@
       <c r="C16" s="11">
         <v>6408167</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>101</v>
+      <c r="D16" s="10">
+        <v>29.559000000000001</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>16</v>
@@ -8222,11 +8178,11 @@
       <c r="G16" s="11">
         <v>6630411</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>107</v>
+      <c r="H16" s="10">
+        <v>29.704000000000001</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>16</v>
@@ -8234,13 +8190,17 @@
       <c r="K16" s="11">
         <v>6618467</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>112</v>
+      <c r="L16" s="10">
+        <v>28.89</v>
+      </c>
+      <c r="M16" s="21">
+        <f>SUM(L16,H16,D16)</f>
+        <v>88.153000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>16</v>
@@ -8249,10 +8209,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>16</v>
@@ -8261,10 +8221,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>16</v>
@@ -8273,12 +8233,13 @@
         <v>0</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>113</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M17" s="21"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>16</v>
@@ -8286,11 +8247,11 @@
       <c r="C18" s="11">
         <v>4105471819</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>104</v>
+      <c r="D18" s="10">
+        <v>6.2080000000000002</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>16</v>
@@ -8298,11 +8259,11 @@
       <c r="G18" s="11">
         <v>4138525768</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>109</v>
+      <c r="H18" s="10">
+        <v>6.3280000000000003</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>16</v>
@@ -8310,103 +8271,111 @@
       <c r="K18" s="11">
         <v>4070432141</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>114</v>
+      <c r="L18" s="10">
+        <v>6.1890000000000001</v>
+      </c>
+      <c r="M18" s="21">
+        <f t="shared" ref="M16:M18" si="1">SUM(L18,H18,D18)</f>
+        <v>18.725000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="9">
         <v>0</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G19" s="9">
         <v>0</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K19" s="9">
         <v>0</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14">
         <v>28613</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="14">
         <v>37788</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="14">
         <v>13326</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>110</v>
+        <v>92</v>
+      </c>
+      <c r="M20">
+        <f>AVERAGE(M15,M16,M18)</f>
+        <v>70.066000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="2" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
       <c r="G23" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
       <c r="N23" s="22" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -8417,7 +8386,7 @@
         <v>81.308000000000007</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>0</v>
@@ -8426,7 +8395,7 @@
         <v>82.350999999999999</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>0</v>
@@ -8435,7 +8404,7 @@
         <v>81.308000000000007</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>0</v>
@@ -8445,7 +8414,7 @@
         <v>81.655666666666662</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -8456,7 +8425,7 @@
         <v>78.763999999999996</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>1</v>
@@ -8465,7 +8434,7 @@
         <v>79.111000000000004</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>1</v>
@@ -8474,166 +8443,166 @@
         <v>78.763999999999996</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>1</v>
       </c>
       <c r="O25" s="21">
-        <f t="shared" ref="O25:O32" si="1">AVERAGE(B25,E25,H25)</f>
+        <f t="shared" ref="O25:O32" si="2">AVERAGE(B25,E25,H25)</f>
         <v>78.879666666666665</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B26" s="16">
         <v>0.10199999999999999</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E26" s="16">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H26" s="16">
         <v>0.10199999999999999</v>
       </c>
       <c r="I26" s="10"/>
       <c r="N26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O26" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10066666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B27" s="11">
         <v>112924587636</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E27" s="11">
         <v>118301948952</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H27" s="11">
         <v>112924587636</v>
       </c>
       <c r="I27" s="10"/>
       <c r="N27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O27" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>114717041408</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B28" s="11">
         <v>72555376596</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E28" s="11">
         <v>76011480276</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H28" s="11">
         <v>72555376596</v>
       </c>
       <c r="I28" s="10"/>
       <c r="N28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O28" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73707411156</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="9">
         <v>0</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E29" s="11">
         <v>1800054</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
       </c>
       <c r="I29" s="10"/>
       <c r="N29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O29" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600018</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="9">
         <v>13</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E30" s="9">
         <v>13</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H30" s="9">
         <v>13</v>
       </c>
       <c r="I30" s="10"/>
       <c r="N30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O30" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
@@ -8663,7 +8632,7 @@
         <v>6</v>
       </c>
       <c r="O31" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -8675,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>7</v>
@@ -8684,95 +8653,95 @@
         <v>0</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N32" s="12" t="s">
         <v>7</v>
       </c>
       <c r="O32" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
       <c r="G33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -8783,7 +8752,7 @@
         <v>51.864654932500002</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D36" s="8">
         <v>0</v>
@@ -8792,7 +8761,7 @@
         <v>22.111327430500001</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G36" s="8">
         <v>0</v>
@@ -8801,7 +8770,7 @@
         <v>16.8378351048</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -8812,7 +8781,7 @@
         <v>8.83</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
@@ -8821,7 +8790,7 @@
         <v>40.65</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G37" s="8">
         <v>1</v>
@@ -8830,7 +8799,7 @@
         <v>44.46</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -8841,7 +8810,7 @@
         <v>13.77</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D38" s="8">
         <v>2</v>
@@ -8850,7 +8819,7 @@
         <v>12.38</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G38" s="8">
         <v>2</v>
@@ -8859,7 +8828,7 @@
         <v>10.71</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -8870,7 +8839,7 @@
         <v>1.20999999999999</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D39" s="8">
         <v>3</v>
@@ -8879,7 +8848,7 @@
         <v>1.75</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
@@ -8888,7 +8857,7 @@
         <v>4.7299999999999898</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -8899,7 +8868,7 @@
         <v>0.36</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D40" s="8">
         <v>4</v>
@@ -8908,7 +8877,7 @@
         <v>0.42</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
@@ -8917,7 +8886,7 @@
         <v>1.45</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -8928,7 +8897,7 @@
         <v>0.01</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D41" s="8">
         <v>5</v>
@@ -8937,7 +8906,7 @@
         <v>0.39999999999999902</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G41" s="8">
         <v>5</v>
@@ -8946,7 +8915,7 @@
         <v>0.41999999999999899</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -8957,7 +8926,7 @@
         <v>9.9999999999999898E-3</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D42" s="8">
         <v>6</v>
@@ -8966,7 +8935,7 @@
         <v>2.75</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G42" s="8">
         <v>6</v>
@@ -8975,7 +8944,7 @@
         <v>1.22</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -8989,7 +8958,7 @@
         <v>1.6</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G43" s="8">
         <v>7</v>
@@ -8998,7 +8967,7 @@
         <v>1.35</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -9012,7 +8981,7 @@
         <v>0.26</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G44" s="8">
         <v>8</v>
@@ -9021,7 +8990,7 @@
         <v>0.13</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -9035,7 +9004,7 @@
         <v>0.03</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="13"/>
@@ -9043,41 +9012,41 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
       <c r="D46" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="7"/>
       <c r="G46" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I47" s="10"/>
     </row>
@@ -10174,8 +10143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P91"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24:P32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10192,35 +10161,35 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
       <c r="N3" s="19" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -10231,7 +10200,7 @@
         <v>44.902000000000001</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
@@ -10241,7 +10210,7 @@
         <v>47.031999999999996</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="8" t="s">
@@ -10251,7 +10220,7 @@
         <v>47.100999999999999</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L4" s="10"/>
       <c r="N4" t="s">
@@ -10262,7 +10231,7 @@
         <v>46.344999999999999</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -10273,7 +10242,7 @@
         <v>43.182000000000002</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8" t="s">
@@ -10283,7 +10252,7 @@
         <v>45.25</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="8" t="s">
@@ -10293,7 +10262,7 @@
         <v>44.613</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L5" s="10"/>
       <c r="N5" t="s">
@@ -10304,7 +10273,7 @@
         <v>44.348333333333336</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -10513,7 +10482,7 @@
         <v>0.157</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="12" t="s">
@@ -10531,7 +10500,7 @@
         <v>0.122</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L12" s="15"/>
       <c r="N12" t="s">
@@ -10542,7 +10511,7 @@
         <v>0.121</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -10605,7 +10574,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>16</v>
@@ -10613,11 +10582,11 @@
       <c r="C15" s="11">
         <v>4293106065</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>120</v>
+      <c r="D15" s="10">
+        <v>36.555999999999997</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>16</v>
@@ -10625,11 +10594,11 @@
       <c r="G15" s="11">
         <v>4273366578</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>122</v>
+      <c r="H15" s="10">
+        <v>38.103999999999999</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>16</v>
@@ -10637,13 +10606,17 @@
       <c r="K15" s="11">
         <v>4202183594</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>125</v>
+      <c r="L15" s="10">
+        <v>37.518999999999998</v>
+      </c>
+      <c r="M15">
+        <f>AVERAGE(L15,H15,D15)</f>
+        <v>37.392999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>16</v>
@@ -10652,10 +10625,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>16</v>
@@ -10664,10 +10637,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>16</v>
@@ -10676,143 +10649,143 @@
         <v>0</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="9">
         <v>0</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K17" s="9">
         <v>0</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="9">
         <v>0</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="9">
         <v>0</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G19" s="9">
         <v>0</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K19" s="9">
         <v>0</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13">
         <v>0</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13">
         <v>0</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="13"/>
@@ -10821,27 +10794,27 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
       <c r="G23" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="4"/>
       <c r="N23" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -10852,7 +10825,7 @@
         <v>44.012999999999998</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>0</v>
@@ -10861,7 +10834,7 @@
         <v>43.97</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>0</v>
@@ -10870,7 +10843,7 @@
         <v>43.209000000000003</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N24" t="s">
         <v>0</v>
@@ -10880,7 +10853,7 @@
         <v>43.730666666666671</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -10891,7 +10864,7 @@
         <v>42.405999999999999</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>1</v>
@@ -10900,7 +10873,7 @@
         <v>42.390999999999998</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>1</v>
@@ -10909,7 +10882,7 @@
         <v>16.251999999999999</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N25" t="s">
         <v>1</v>
@@ -10919,33 +10892,33 @@
         <v>33.683</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B26" s="16">
         <v>0.02</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E26" s="16">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H26" s="16">
         <v>1.6E-2</v>
       </c>
       <c r="I26" s="10"/>
       <c r="N26" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
@@ -10954,28 +10927,28 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B27" s="11">
         <v>129735891960</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E27" s="11">
         <v>133948018320</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H27" s="11">
         <v>51455743626</v>
       </c>
       <c r="I27" s="10"/>
       <c r="N27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
@@ -10984,28 +10957,28 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B28" s="11">
         <v>50219106528</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E28" s="11">
         <v>51845155308</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H28" s="11">
         <v>19907997222</v>
       </c>
       <c r="I28" s="10"/>
       <c r="N28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
@@ -11014,28 +10987,28 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="9">
         <v>0</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E29" s="11">
         <v>600018</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
       </c>
       <c r="I29" s="10"/>
       <c r="N29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
@@ -11044,28 +11017,28 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="9">
         <v>15</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E30" s="9">
         <v>16</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H30" s="9">
         <v>15</v>
       </c>
       <c r="I30" s="10"/>
       <c r="N30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
@@ -11110,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>7</v>
@@ -11119,7 +11092,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>7</v>
@@ -11128,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="N32" t="s">
         <v>7</v>
@@ -11138,76 +11111,76 @@
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
       <c r="G33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -11218,7 +11191,7 @@
         <v>39.512851046800002</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D36" s="8">
         <v>0</v>
@@ -11227,7 +11200,7 @@
         <v>40.569532177900001</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G36" s="8">
         <v>0</v>
@@ -11236,7 +11209,7 @@
         <v>40.258606344900002</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -11247,7 +11220,7 @@
         <v>3.1799999999999899</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
@@ -11256,7 +11229,7 @@
         <v>2.17</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G37" s="8">
         <v>1</v>
@@ -11265,7 +11238,7 @@
         <v>1.96</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -11276,7 +11249,7 @@
         <v>0.8</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D38" s="8">
         <v>2</v>
@@ -11285,7 +11258,7 @@
         <v>0.83</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G38" s="8">
         <v>2</v>
@@ -11294,7 +11267,7 @@
         <v>0.69</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -11305,7 +11278,7 @@
         <v>0.33999999999999903</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D39" s="8">
         <v>3</v>
@@ -11314,7 +11287,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G39" s="8">
         <v>3</v>
@@ -11323,7 +11296,7 @@
         <v>0.18</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -11334,7 +11307,7 @@
         <v>0.17</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D40" s="8">
         <v>4</v>
@@ -11343,7 +11316,7 @@
         <v>0.09</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G40" s="8">
         <v>4</v>
@@ -11352,7 +11325,7 @@
         <v>0.09</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -11363,7 +11336,7 @@
         <v>0.01</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D41" s="12">
         <v>5</v>
@@ -11372,7 +11345,7 @@
         <v>0.03</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G41" s="12">
         <v>5</v>
@@ -11381,46 +11354,46 @@
         <v>0.03</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
       <c r="D42" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
       <c r="G42" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="7"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I43" s="10"/>
     </row>
